--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Ror2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Ror2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04009133333333333</v>
+        <v>8.212806333333333</v>
       </c>
       <c r="N2">
-        <v>0.120274</v>
+        <v>24.638419</v>
       </c>
       <c r="O2">
-        <v>0.004449173663854228</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="P2">
-        <v>0.004449173663854228</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="Q2">
-        <v>0.009154428325777777</v>
+        <v>1.079975820027</v>
       </c>
       <c r="R2">
-        <v>0.082389854932</v>
+        <v>9.719782380243</v>
       </c>
       <c r="S2">
-        <v>0.00402241010229181</v>
+        <v>0.3238967161492883</v>
       </c>
       <c r="T2">
-        <v>0.004022410102291811</v>
+        <v>0.3238967161492883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.212806333333333</v>
+        <v>1.053359333333333</v>
       </c>
       <c r="N3">
-        <v>24.638419</v>
+        <v>3.160078</v>
       </c>
       <c r="O3">
-        <v>0.9114239564145669</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="P3">
-        <v>0.911423956414567</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="Q3">
-        <v>1.875306722949111</v>
+        <v>0.138515698974</v>
       </c>
       <c r="R3">
-        <v>16.877760506542</v>
+        <v>1.246641290766</v>
       </c>
       <c r="S3">
-        <v>0.8240004114779461</v>
+        <v>0.04154239308031943</v>
       </c>
       <c r="T3">
-        <v>0.8240004114779461</v>
+        <v>0.04154239308031943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -664,10 +664,10 @@
         <v>0.685018</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7580640000000001</v>
+        <v>8.212806333333333</v>
       </c>
       <c r="N4">
-        <v>2.274192</v>
+        <v>24.638419</v>
       </c>
       <c r="O4">
-        <v>0.08412686992157885</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="P4">
-        <v>0.08412686992157886</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="Q4">
-        <v>0.173095828384</v>
+        <v>1.875306722949111</v>
       </c>
       <c r="R4">
-        <v>1.557862455456</v>
+        <v>16.877760506542</v>
       </c>
       <c r="S4">
-        <v>0.07605744280019969</v>
+        <v>0.5624252673737777</v>
       </c>
       <c r="T4">
-        <v>0.0760574428001997</v>
+        <v>0.5624252673737777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,170 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H5">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I5">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J5">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04009133333333333</v>
+        <v>1.053359333333333</v>
       </c>
       <c r="N5">
-        <v>0.120274</v>
+        <v>3.160078</v>
       </c>
       <c r="O5">
-        <v>0.004449173663854228</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="P5">
-        <v>0.004449173663854228</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="Q5">
-        <v>0.0009712526413333333</v>
+        <v>0.2405233679337778</v>
       </c>
       <c r="R5">
-        <v>0.008741273771999999</v>
+        <v>2.164710311404</v>
       </c>
       <c r="S5">
-        <v>0.0004267635615624176</v>
+        <v>0.07213562339661457</v>
       </c>
       <c r="T5">
-        <v>0.0004267635615624176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.024226</v>
-      </c>
-      <c r="H6">
-        <v>0.07267799999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.09591973561956246</v>
-      </c>
-      <c r="J6">
-        <v>0.09591973561956245</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>8.212806333333333</v>
-      </c>
-      <c r="N6">
-        <v>24.638419</v>
-      </c>
-      <c r="O6">
-        <v>0.9114239564145669</v>
-      </c>
-      <c r="P6">
-        <v>0.911423956414567</v>
-      </c>
-      <c r="Q6">
-        <v>0.1989634462313333</v>
-      </c>
-      <c r="R6">
-        <v>1.790671016082</v>
-      </c>
-      <c r="S6">
-        <v>0.08742354493662087</v>
-      </c>
-      <c r="T6">
-        <v>0.08742354493662087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.024226</v>
-      </c>
-      <c r="H7">
-        <v>0.07267799999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.09591973561956246</v>
-      </c>
-      <c r="J7">
-        <v>0.09591973561956245</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.7580640000000001</v>
-      </c>
-      <c r="N7">
-        <v>2.274192</v>
-      </c>
-      <c r="O7">
-        <v>0.08412686992157885</v>
-      </c>
-      <c r="P7">
-        <v>0.08412686992157886</v>
-      </c>
-      <c r="Q7">
-        <v>0.018364858464</v>
-      </c>
-      <c r="R7">
-        <v>0.165283726176</v>
-      </c>
-      <c r="S7">
-        <v>0.008069427121379164</v>
-      </c>
-      <c r="T7">
-        <v>0.008069427121379164</v>
+        <v>0.07213562339661457</v>
       </c>
     </row>
   </sheetData>
